--- a/Platas/Deudas.xlsx
+++ b/Platas/Deudas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Zanford" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,24 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
   <si>
     <t xml:space="preserve">Monto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pago Tablets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pago Robots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pago Patos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bencina</t>
   </si>
   <si>
     <t xml:space="preserve">Cajas Plasticas</t>
@@ -51,10 +39,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-340A]#,##0;[RED][$$-340A]&quot; -&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="[$$-340A]#,##0;[RED][$$-340A]&quot; -&quot;#,##0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -127,16 +114,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -167,13 +150,15 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -185,46 +170,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>200000</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>-1500000</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>2086</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="n">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="n">
         <f aca="false">SUM(B2:B9)</f>
-        <v>-1290914</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -244,14 +209,13 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -264,7 +228,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>3600</v>
@@ -272,7 +236,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="n">
         <f aca="false">SUM(B2:B10)</f>

--- a/Platas/Deudas.xlsx
+++ b/Platas/Deudas.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing\Desktop\dackcl\Platas\"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Item</t>
   </si>
@@ -49,16 +49,26 @@
   </si>
   <si>
     <t>Cintas</t>
+  </si>
+  <si>
+    <t>PPM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$$-340A]#,##0;[Red][$$-340A]&quot; -&quot;#,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -89,16 +99,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,11 +479,19 @@
         <v>5970</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1238</v>
+      </c>
+    </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3">
         <f>SUM(B2:B9)</f>
-        <v>145747</v>
+        <v>146985</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
